--- a/04_単体テスト/単体試験仕様書/チーム1/K01勤怠登録画面_単体テストエビデンス_山下.xlsx
+++ b/04_単体テスト/単体試験仕様書/チーム1/K01勤怠登録画面_単体テストエビデンス_山下.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>localhost:8080/login</t>
+  </si>
+  <si>
+    <t>4.localhost:8080/login</t>
   </si>
   <si>
     <r>
@@ -1633,15 +1636,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>114284</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>63515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1660,8 +1663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="21234384"/>
-          <a:ext cx="7620000" cy="6464316"/>
+          <a:off x="825499" y="27343100"/>
+          <a:ext cx="7620001" cy="6464316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1677,26 +1680,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>190218</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>65877</xdr:rowOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>51081</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>19031</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="社員ID、パスワードが一致した場合"/>
+        <xdr:cNvPr id="10" name="社員ID、パスワードが一致した場合、ログイン画面に遷移する"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2120618" y="23497377"/>
-          <a:ext cx="2515164" cy="486555"/>
+          <a:off x="1879318" y="29451300"/>
+          <a:ext cx="4400833" cy="584201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,7 +1770,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
             </a:rPr>
-            <a:t>社員ID、パスワードが一致した場合</a:t>
+            <a:t>社員ID、パスワードが一致した場合、ログイン画面に遷移する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1777,15 +1780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>162821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>177799</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1804,8 +1807,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="28039321"/>
-          <a:ext cx="7620000" cy="1081779"/>
+          <a:off x="774699" y="34617921"/>
+          <a:ext cx="7620001" cy="1081779"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,6 +1820,153 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>126487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>51312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="スクリーンショット 2023-01-25 13.18.26.png" descr="スクリーンショット 2023-01-25 13.18.26.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1015999" y="21246587"/>
+          <a:ext cx="7620001" cy="3303026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>112315</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>108573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6387</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>120185</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="1.押下"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6144815" y="22473273"/>
+          <a:ext cx="859273" cy="1256213"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -48647"/>
+            <a:gd name="adj2" fmla="val 66278"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
+            </a:rPr>
+            <a:t>1.押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1839,7 +1989,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1927,7 +2077,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2034,7 +2184,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2122,7 +2272,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -17353,7 +17503,7 @@
     <row r="77" ht="14" customHeight="1">
       <c r="A77" s="61"/>
       <c r="B77" s="66">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C77" s="52"/>
       <c r="D77" t="s" s="55">
@@ -19160,13 +19310,11 @@
     </row>
     <row r="118" ht="14" customHeight="1">
       <c r="A118" s="61"/>
-      <c r="B118" s="66">
-        <v>5</v>
+      <c r="B118" t="s" s="55">
+        <v>32</v>
       </c>
       <c r="C118" s="52"/>
-      <c r="D118" t="s" s="55">
-        <v>31</v>
-      </c>
+      <c r="D118" s="52"/>
       <c r="E118" s="52"/>
       <c r="F118" s="52"/>
       <c r="G118" s="52"/>
@@ -20660,9 +20808,13 @@
     </row>
     <row r="152" ht="14" customHeight="1">
       <c r="A152" s="61"/>
-      <c r="B152" s="52"/>
+      <c r="B152" s="66">
+        <v>5</v>
+      </c>
       <c r="C152" s="52"/>
-      <c r="D152" s="52"/>
+      <c r="D152" t="s" s="55">
+        <v>31</v>
+      </c>
       <c r="E152" s="52"/>
       <c r="F152" s="52"/>
       <c r="G152" s="52"/>
@@ -24462,7 +24614,7 @@
       <c r="L1" s="30"/>
       <c r="M1" t="s" s="31">
         <f>'単体テストエビデンス'!M1</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
@@ -24476,7 +24628,7 @@
       <c r="U1" s="30"/>
       <c r="V1" t="s" s="31">
         <f>'単体テストエビデンス'!V1</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
@@ -24514,7 +24666,7 @@
       <c r="L2" s="30"/>
       <c r="M2" t="s" s="31">
         <f>'単体テストエビデンス'!M2</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
@@ -24528,7 +24680,7 @@
       <c r="U2" s="30"/>
       <c r="V2" t="s" s="31">
         <f>'単体テストエビデンス'!V2</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
@@ -24637,10 +24789,10 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="s" s="74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="75">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
@@ -24659,7 +24811,7 @@
       <c r="Q5" s="76"/>
       <c r="R5" s="77"/>
       <c r="S5" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T5" s="73"/>
       <c r="U5" s="73"/>
@@ -24720,7 +24872,7 @@
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="79"/>
       <c r="B7" t="s" s="75">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -24760,7 +24912,7 @@
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="79"/>
       <c r="B8" t="s" s="75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -24780,7 +24932,7 @@
       <c r="R8" s="77"/>
       <c r="S8" s="73"/>
       <c r="T8" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U8" s="73"/>
       <c r="V8" s="73"/>
@@ -24802,7 +24954,7 @@
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="79"/>
       <c r="B9" t="s" s="75">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="76"/>
       <c r="D9" s="76"/>
@@ -24823,13 +24975,13 @@
       <c r="S9" s="73"/>
       <c r="T9" s="73"/>
       <c r="U9" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V9" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X9" s="73"/>
       <c r="Y9" s="73"/>
@@ -24886,7 +25038,7 @@
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="79"/>
       <c r="B11" t="s" s="75">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
@@ -24926,7 +25078,7 @@
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="79"/>
       <c r="B12" t="s" s="75">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
@@ -24947,7 +25099,7 @@
       <c r="S12" s="73"/>
       <c r="T12" s="73"/>
       <c r="U12" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V12" s="73"/>
       <c r="W12" s="73"/>
@@ -24968,7 +25120,7 @@
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="79"/>
       <c r="B13" t="s" s="75">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="76"/>
       <c r="D13" s="76"/>
@@ -24990,10 +25142,10 @@
       <c r="T13" s="73"/>
       <c r="U13" s="73"/>
       <c r="V13" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W13" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X13" s="73"/>
       <c r="Y13" s="73"/>
@@ -25050,7 +25202,7 @@
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="79"/>
       <c r="B15" t="s" s="75">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
@@ -25090,7 +25242,7 @@
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="79"/>
       <c r="B16" t="s" s="75">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="76"/>
       <c r="D16" s="76"/>
@@ -25112,7 +25264,7 @@
       <c r="T16" s="73"/>
       <c r="U16" s="73"/>
       <c r="V16" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W16" s="73"/>
       <c r="X16" s="73"/>
@@ -25132,7 +25284,7 @@
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="79"/>
       <c r="B17" t="s" s="75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
@@ -25155,7 +25307,7 @@
       <c r="U17" s="73"/>
       <c r="V17" s="73"/>
       <c r="W17" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X17" s="73"/>
       <c r="Y17" s="73"/>
@@ -25212,7 +25364,7 @@
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="79"/>
       <c r="B19" t="s" s="75">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="76"/>
       <c r="D19" s="76"/>
@@ -25232,16 +25384,16 @@
       <c r="R19" s="77"/>
       <c r="S19" s="73"/>
       <c r="T19" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U19" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V19" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W19" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X19" s="73"/>
       <c r="Y19" s="73"/>
@@ -25449,10 +25601,10 @@
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" t="s" s="81">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="75">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
@@ -25471,7 +25623,7 @@
       <c r="Q25" s="76"/>
       <c r="R25" s="77"/>
       <c r="S25" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T25" s="73"/>
       <c r="U25" s="73"/>
@@ -25494,7 +25646,7 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" t="s" s="75">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -25513,7 +25665,7 @@
       <c r="Q26" s="76"/>
       <c r="R26" s="77"/>
       <c r="S26" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T26" s="73"/>
       <c r="U26" s="73"/>
@@ -25536,7 +25688,7 @@
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" t="s" s="75">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="76"/>
       <c r="D27" s="76"/>
@@ -25555,7 +25707,7 @@
       <c r="Q27" s="76"/>
       <c r="R27" s="77"/>
       <c r="S27" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T27" s="73"/>
       <c r="U27" s="73"/>
@@ -25616,7 +25768,7 @@
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" t="s" s="75">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="76"/>
       <c r="D29" s="76"/>
@@ -25636,7 +25788,7 @@
       <c r="R29" s="77"/>
       <c r="S29" s="73"/>
       <c r="T29" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U29" s="73"/>
       <c r="V29" s="73"/>
@@ -25658,7 +25810,7 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="82"/>
       <c r="B30" t="s" s="75">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="76"/>
@@ -25679,7 +25831,7 @@
       <c r="S30" s="73"/>
       <c r="T30" s="73"/>
       <c r="U30" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V30" s="73"/>
       <c r="W30" s="73"/>
@@ -25814,7 +25966,7 @@
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="82"/>
       <c r="B34" t="s" s="75">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
@@ -25835,10 +25987,10 @@
       <c r="S34" s="73"/>
       <c r="T34" s="73"/>
       <c r="U34" t="s" s="92">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V34" t="s" s="93">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W34" s="73"/>
       <c r="X34" s="73"/>
@@ -26010,7 +26162,7 @@
     <row r="39" ht="18" customHeight="1">
       <c r="A39" s="82"/>
       <c r="B39" t="s" s="75">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="76"/>
       <c r="D39" s="76"/>
@@ -26033,7 +26185,7 @@
       <c r="U39" s="73"/>
       <c r="V39" s="73"/>
       <c r="W39" t="s" s="93">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X39" s="73"/>
       <c r="Y39" s="73"/>
@@ -26073,7 +26225,7 @@
       <c r="U40" s="73"/>
       <c r="V40" s="73"/>
       <c r="W40" t="s" s="92">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X40" s="73"/>
       <c r="Y40" s="73"/>
@@ -26243,7 +26395,7 @@
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" t="s" s="95">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="96"/>
       <c r="C45" s="96"/>
@@ -26263,19 +26415,19 @@
       <c r="Q45" s="96"/>
       <c r="R45" s="96"/>
       <c r="S45" t="s" s="97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T45" t="s" s="97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U45" t="s" s="97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V45" t="s" s="97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W45" t="s" s="97">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X45" s="98"/>
       <c r="Y45" s="98"/>
@@ -26293,7 +26445,7 @@
     </row>
     <row r="46" ht="18" customHeight="1">
       <c r="A46" t="s" s="95">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="96"/>
       <c r="C46" s="96"/>
@@ -26343,7 +26495,7 @@
     </row>
     <row r="47" ht="28.05" customHeight="1">
       <c r="A47" t="s" s="75">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -26393,7 +26545,7 @@
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="A48" t="s" s="95">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
@@ -26433,7 +26585,7 @@
     </row>
     <row r="49" ht="28.05" customHeight="1">
       <c r="A49" t="s" s="95">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
@@ -34357,7 +34509,7 @@
       <c r="L1" s="30"/>
       <c r="M1" t="s" s="31">
         <f>'単体テストエビデンス'!M1</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
@@ -34371,7 +34523,7 @@
       <c r="U1" s="30"/>
       <c r="V1" t="s" s="31">
         <f>'単体テストエビデンス'!V1</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W1" s="32"/>
       <c r="X1" s="32"/>
@@ -34409,7 +34561,7 @@
       <c r="L2" s="30"/>
       <c r="M2" t="s" s="31">
         <f>'単体テストエビデンス'!M2</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
@@ -34423,7 +34575,7 @@
       <c r="U2" s="30"/>
       <c r="V2" t="s" s="31">
         <f>'単体テストエビデンス'!V2</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W2" s="32"/>
       <c r="X2" s="32"/>
@@ -34532,10 +34684,10 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="s" s="74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="75">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
@@ -34594,7 +34746,7 @@
       <c r="Q6" s="76"/>
       <c r="R6" s="77"/>
       <c r="S6" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T6" s="73"/>
       <c r="U6" s="73"/>
@@ -34637,7 +34789,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="73"/>
       <c r="T7" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U7" s="73"/>
       <c r="V7" s="73"/>
@@ -34680,7 +34832,7 @@
       <c r="S8" s="73"/>
       <c r="T8" s="73"/>
       <c r="U8" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V8" s="73"/>
       <c r="W8" s="73"/>
@@ -34723,7 +34875,7 @@
       <c r="T9" s="73"/>
       <c r="U9" s="73"/>
       <c r="V9" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W9" s="73"/>
       <c r="X9" s="73"/>
@@ -34766,7 +34918,7 @@
       <c r="U10" s="73"/>
       <c r="V10" s="73"/>
       <c r="W10" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X10" s="73"/>
       <c r="Y10" s="73"/>
@@ -34899,7 +35051,7 @@
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="79"/>
       <c r="B14" t="s" s="75">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -35318,10 +35470,10 @@
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" t="s" s="81">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="75">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="76"/>
       <c r="D25" s="76"/>
@@ -35340,13 +35492,13 @@
       <c r="Q25" s="76"/>
       <c r="R25" s="77"/>
       <c r="S25" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T25" s="73"/>
       <c r="U25" s="73"/>
       <c r="V25" s="73"/>
       <c r="W25" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X25" s="73"/>
       <c r="Y25" s="73"/>
@@ -35365,7 +35517,7 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" t="s" s="75">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="76"/>
       <c r="D26" s="76"/>
@@ -35385,13 +35537,13 @@
       <c r="R26" s="77"/>
       <c r="S26" s="73"/>
       <c r="T26" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U26" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V26" t="s" s="78">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W26" s="73"/>
       <c r="X26" s="73"/>
@@ -36094,7 +36246,7 @@
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" t="s" s="95">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" s="96"/>
       <c r="C45" s="96"/>
@@ -36134,7 +36286,7 @@
     </row>
     <row r="46" ht="18" customHeight="1">
       <c r="A46" t="s" s="95">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" s="96"/>
       <c r="C46" s="96"/>
@@ -36174,7 +36326,7 @@
     </row>
     <row r="47" ht="28.05" customHeight="1">
       <c r="A47" t="s" s="75">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" s="76"/>
       <c r="C47" s="76"/>
@@ -36214,7 +36366,7 @@
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="A48" t="s" s="95">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" s="96"/>
       <c r="C48" s="96"/>
@@ -36254,7 +36406,7 @@
     </row>
     <row r="49" ht="28.05" customHeight="1">
       <c r="A49" t="s" s="95">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" s="96"/>
       <c r="C49" s="96"/>
